--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3751574.315844739</v>
+        <v>3756513.578693772</v>
       </c>
     </row>
     <row r="7">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>88.18799940186481</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>133.2952503651419</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>43.31785343914003</v>
       </c>
       <c r="X4" t="n">
-        <v>101.7806877295493</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>157.7102488650009</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>88.50906737106958</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>28.11374845278241</v>
+        <v>41.03250833503017</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>298.9886279539494</v>
+        <v>362.4006936231293</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.52687838733143</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014439</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>45.14375361072376</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>86.37043832060336</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014439</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>111.9679966130648</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>224.895256723152</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1903,10 +1903,10 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>66.87635383915799</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>118.489884506511</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985775</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238281</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274074</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836034</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583894</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985775</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056507</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>118.489884506511</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985775</v>
+        <v>37.34995075181404</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113178</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>190.2298671978243</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>175.9209644665758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,16 +3009,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>57.85017494300162</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T37" t="n">
-        <v>135.8803936258651</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>122.6519788371604</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417137</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>42.18007463019025</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>206.8064269214864</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>24.29718497126802</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1483.703156598057</v>
+        <v>1487.242648509747</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>1118.280131569335</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>760.0144329625848</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>760.0144329625848</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4375,7 +4375,7 @@
         <v>1873.842488573869</v>
       </c>
       <c r="Y2" t="n">
-        <v>1483.703156598057</v>
+        <v>1873.842488573869</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4409,19 +4409,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4433,19 +4433,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4527,13 +4527,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X4" t="n">
-        <v>625.3202087220412</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4552,13 +4552,13 @@
         <v>561.3098882767933</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>561.3098882767933</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>699.731258496553</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>551.8181649141599</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>404.9282174162495</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1097.103316533935</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C8" t="n">
-        <v>728.1407995935235</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D8" t="n">
-        <v>369.875100986773</v>
+        <v>819.7159451700475</v>
       </c>
       <c r="E8" t="n">
-        <v>369.875100986773</v>
+        <v>433.9276925718032</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>1873.842488573869</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>1483.703156598057</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.4553696737762</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>544.5191867458693</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155902</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.63284889913</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207833</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014296</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231267</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141871</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465305</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>233.7852434110073</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555202</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619844</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441946</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.623401105979</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>462.171033962193</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C13" t="n">
-        <v>293.234851034286</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D13" t="n">
-        <v>293.234851034286</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>293.234851034286</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>293.234851034286</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123428</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>933.2366688293935</v>
+        <v>1300.59830012922</v>
       </c>
       <c r="W13" t="n">
-        <v>643.8194987924328</v>
+        <v>1011.181130092259</v>
       </c>
       <c r="X13" t="n">
-        <v>643.8194987924328</v>
+        <v>783.1915791942415</v>
       </c>
       <c r="Y13" t="n">
-        <v>643.8194987924328</v>
+        <v>562.3990000507114</v>
       </c>
     </row>
     <row r="14">
@@ -5269,22 +5269,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823773</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514072</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5293,34 +5293,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5345,7 +5345,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126484</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571612</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636255</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526318</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1274.742180641885</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="U16" t="n">
-        <v>1271.749344574921</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V16" t="n">
-        <v>1017.064856369034</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W16" t="n">
-        <v>727.6476863320734</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340559</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905257</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5512,46 +5512,46 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1999.905696641086</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O18" t="n">
-        <v>2279.445761859783</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P18" t="n">
-        <v>2484.468242641993</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028589</v>
+        <v>333.7051469529988</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>164.7689640250919</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>164.7689640250919</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>164.7689640250919</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>164.7689640250919</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1379.229518531123</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531123</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V19" t="n">
-        <v>835.4163915387942</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018335</v>
+        <v>964.135741824786</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038161</v>
+        <v>736.1461909267687</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028589</v>
+        <v>515.3536117832385</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5767,37 +5767,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765181</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706311</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336704</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003444</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155918</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805478</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V25" t="n">
-        <v>835.4163915387942</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018335</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038161</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6253,25 +6253,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>395.5481934947357</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C28" t="n">
-        <v>395.5481934947357</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D28" t="n">
-        <v>395.5481934947357</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028587</v>
@@ -6384,7 +6384,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6393,7 +6393,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1044.311772267568</v>
+        <v>593.9308254686154</v>
       </c>
       <c r="W28" t="n">
-        <v>754.8946022306075</v>
+        <v>593.9308254686154</v>
       </c>
       <c r="X28" t="n">
-        <v>754.8946022306075</v>
+        <v>593.9308254686154</v>
       </c>
       <c r="Y28" t="n">
-        <v>577.1966583249754</v>
+        <v>593.9308254686154</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6475,16 +6475,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>727.647686332073</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6715,13 +6715,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6767,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6782,19 +6782,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6952,13 +6952,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,13 +7004,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7019,19 +7019,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.921157035281</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T37" t="n">
-        <v>1050.668234180871</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>761.5395953944297</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>506.8551071885429</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>506.8551071885429</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>278.8655562905255</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609669</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>731.31772835508</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>441.9005583181194</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>318.009670603816</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7426,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028589</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028589</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>1167.181495781369</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>877.7643257444088</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028589</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028589</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7663,37 +7663,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X46" t="n">
-        <v>318.009670603816</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028589</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747122</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>96.03744927814509</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544521</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776736</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544521</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.49733361305218</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.7164198729829</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>121.3498148526539</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583894</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985775</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>165.7672050032247</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633777</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836033</v>
+        <v>85.95281337053844</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583894</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>61.34209567542541</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633777</v>
+        <v>99.6172146242196</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>79.43092547709239</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583894</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633777</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338659</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633777</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836034</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518784</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>248.8874016467633</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>61.90777612600374</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>42.66368888551904</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>194.2874683808264</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T37" t="n">
-        <v>85.66716743252411</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>103.0576765518768</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25836,16 +25836,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>209.9575686936378</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26076,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>79.43092547709094</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>194.2874683808268</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>671878.3395195368</v>
+        <v>671878.3395195369</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>671878.3395195368</v>
+        <v>671878.3395195369</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>671878.3395195367</v>
+        <v>671878.3395195369</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>671878.3395195368</v>
+        <v>671878.3395195369</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>671878.3395195368</v>
+        <v>671878.3395195369</v>
       </c>
     </row>
     <row r="10">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="E2" t="n">
         <v>703852.3075278758</v>
       </c>
       <c r="F2" t="n">
-        <v>703852.3075278755</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="G2" t="n">
-        <v>703852.3075278763</v>
+        <v>703852.3075278762</v>
       </c>
       <c r="H2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.307527876</v>
       </c>
       <c r="I2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.307527876</v>
       </c>
       <c r="J2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="K2" t="n">
         <v>703852.307527876</v>
       </c>
       <c r="L2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.307527876</v>
       </c>
       <c r="M2" t="n">
         <v>703852.3075278759</v>
@@ -26352,7 +26352,7 @@
         <v>703852.307527876</v>
       </c>
       <c r="O2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="P2" t="n">
         <v>703852.3075278759</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768968</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338374</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26426,40 +26426,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007318</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007383</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007383</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.73165600745</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.73165600745</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="K4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="K4" t="n">
-        <v>7916.731656007481</v>
-      </c>
       <c r="L4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007424</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007382</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007483</v>
       </c>
     </row>
     <row r="5">
@@ -26475,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871669</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,10 +26493,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26505,13 +26505,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-81806.41311602038</v>
+        <v>-81806.41311601977</v>
       </c>
       <c r="C6" t="n">
         <v>508161.4660985245</v>
       </c>
       <c r="D6" t="n">
-        <v>508161.4660985243</v>
+        <v>508161.4660985247</v>
       </c>
       <c r="E6" t="n">
-        <v>77813.62218653326</v>
+        <v>78690.75432028343</v>
       </c>
       <c r="F6" t="n">
-        <v>602973.65866343</v>
+        <v>603850.7907971797</v>
       </c>
       <c r="G6" t="n">
-        <v>602973.6586634311</v>
+        <v>603850.79079718</v>
       </c>
       <c r="H6" t="n">
-        <v>602973.6586634304</v>
+        <v>603850.7907971798</v>
       </c>
       <c r="I6" t="n">
-        <v>602973.6586634304</v>
+        <v>603850.7907971798</v>
       </c>
       <c r="J6" t="n">
-        <v>426550.4394708373</v>
+        <v>427427.5716045866</v>
       </c>
       <c r="K6" t="n">
-        <v>602973.6586634303</v>
+        <v>603850.7907971798</v>
       </c>
       <c r="L6" t="n">
-        <v>602973.6586634301</v>
+        <v>603850.7907971798</v>
       </c>
       <c r="M6" t="n">
-        <v>468172.6434295927</v>
+        <v>469049.7755633424</v>
       </c>
       <c r="N6" t="n">
-        <v>602973.6586634303</v>
+        <v>603850.7907971798</v>
       </c>
       <c r="O6" t="n">
-        <v>602973.6586634303</v>
+        <v>603850.7907971799</v>
       </c>
       <c r="P6" t="n">
-        <v>602973.65866343</v>
+        <v>603850.7907971797</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541009</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541009</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,16 +26795,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26825,13 +26825,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370143</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990184</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990184</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990184</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>277.0848923691427</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>273.5807953765695</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>243.205144897451</v>
       </c>
       <c r="X4" t="n">
-        <v>123.9289676594879</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>224.2201212072608</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>318.3669783706418</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>120.5017245654299</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>107.887417787762</v>
+        <v>44.47535211858212</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.3051017946059</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>63.3731647155137</v>
       </c>
     </row>
     <row r="11">
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-2.870024218282196e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1.025745006174851e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176653</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.647069592719</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.452637254089</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946996</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354895</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127069</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622985</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458552</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095119</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361495</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298633</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065634</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336903</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.39802836989225</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176653</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.647069592719</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.452637254089</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946996</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354895</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127069</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622985</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458552</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095119</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361495</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298633</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065634</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336903</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.39802836989225</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081123</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951476</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109127</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349825</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>137.9476282330519</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005181</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504666</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980132</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.556183571462</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415065</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081123</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951476</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109127</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349825</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005181</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504666</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980132</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091985</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>610.8663700188191</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>140.5103663981263</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556545</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187468</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556545</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187468</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>516.7753531914248</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556545</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187468</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
